--- a/Es e-m/data/EM.xlsx
+++ b/Es e-m/data/EM.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Documenti\GitHub\Lab3\Carica Massa Elettrone\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rossi\OneDrive\Documenti\GitHub\Lab3\Es e-m\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{193C4800-4520-4EC7-AA26-FF772AA09118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54CBD983-C4BE-4AC5-8EA6-8D92071D2F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Dati</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>102/109</t>
+  </si>
+  <si>
+    <t>2.88915049263828E-05,3.01167260655317E-05,3.10652843668083E-05,3.16581333051062E-05,3.19347961429785E-05,3.21324124557445E-05,3.21719357182977E-05,0.000032250982243404,3.22905055059572E-05,0.000032250982243404,3.23300287685104E-05,3.22905055059572E-05,0.000032250982243404,3.22905055059572E-05,3.22905055059572E-05,3.22114589808509E-05,3.21324124557445E-05,3.18557496178721E-05,3.14605169923402E-05,3.08676680540424E-05,0.000029563400389787,2.74686674744679E-05,7.50941988510633E-07</t>
   </si>
 </sst>
 </file>
@@ -406,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M62"/>
+  <dimension ref="A2:AC62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -420,7 +423,7 @@
     <col min="13" max="13" width="9.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="K2" t="s">
         <v>9</v>
       </c>
@@ -431,7 +434,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="K3">
         <v>8.6</v>
       </c>
@@ -443,7 +446,7 @@
         <v>2.8284271247461901E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -472,7 +475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>-10</v>
       </c>
@@ -502,8 +505,15 @@
         <f>SQRT((C5*G5*((1/10000)/D5)/(F5^2))^2 + (C5*E5*((1/10000)/F5)/(D5^2))^2 )</f>
         <v>2.8891504926382787E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L5">
+        <f>J5</f>
+        <v>2.8891504926382787E-5</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>-9</v>
       </c>
@@ -526,15 +536,19 @@
         <v>1E-4</v>
       </c>
       <c r="I6">
-        <f t="shared" ref="I6:I26" si="0">((C6/D6)/F6)/10000</f>
+        <f t="shared" ref="I6:I25" si="0">((C6/D6)/F6)/10000</f>
         <v>1.3729729729729731E-3</v>
       </c>
       <c r="J6">
-        <f t="shared" ref="J6:J26" si="1">SQRT((C6*G6*((1/10000)/D6)/(F6^2))^2 + (C6*E6*((1/10000)/F6)/(D6^2))^2 )</f>
+        <f t="shared" ref="J6:J25" si="1">SQRT((C6*G6*((1/10000)/D6)/(F6^2))^2 + (C6*E6*((1/10000)/F6)/(D6^2))^2 )</f>
         <v>3.0116726065531721E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L6" t="str">
+        <f>L5&amp;","&amp;J6</f>
+        <v>2,88915049263828E-05,3,01167260655317E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>-8</v>
       </c>
@@ -564,8 +578,12 @@
         <f t="shared" si="1"/>
         <v>3.1065284366808314E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L7" t="str">
+        <f t="shared" ref="L7:L26" si="2">L6&amp;","&amp;J7</f>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>-7</v>
       </c>
@@ -595,8 +613,12 @@
         <f t="shared" si="1"/>
         <v>3.1658133305106178E-5</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L8" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>-6</v>
       </c>
@@ -626,8 +648,12 @@
         <f t="shared" si="1"/>
         <v>3.1934796142978518E-5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L9" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>-5</v>
       </c>
@@ -657,8 +683,12 @@
         <f t="shared" si="1"/>
         <v>3.2132412455744468E-5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L10" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>-4</v>
       </c>
@@ -688,8 +718,12 @@
         <f t="shared" si="1"/>
         <v>3.217193571829766E-5</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L11" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>-3</v>
       </c>
@@ -719,8 +753,12 @@
         <f t="shared" si="1"/>
         <v>3.2250982243404042E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L12" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>-2</v>
       </c>
@@ -750,8 +788,12 @@
         <f t="shared" si="1"/>
         <v>3.2290505505957234E-5</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L13" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>-1</v>
       </c>
@@ -781,8 +823,12 @@
         <f t="shared" si="1"/>
         <v>3.2250982243404042E-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L14" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>0</v>
       </c>
@@ -812,8 +858,12 @@
         <f t="shared" si="1"/>
         <v>3.2330028768510418E-5</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L15" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1</v>
       </c>
@@ -843,8 +893,12 @@
         <f t="shared" si="1"/>
         <v>3.2290505505957234E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L16" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2</v>
       </c>
@@ -874,8 +928,12 @@
         <f t="shared" si="1"/>
         <v>3.2250982243404042E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L17" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3</v>
       </c>
@@ -905,8 +963,12 @@
         <f t="shared" si="1"/>
         <v>3.2290505505957234E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L18" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404,3,22905055059572E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>4</v>
       </c>
@@ -936,8 +998,12 @@
         <f t="shared" si="1"/>
         <v>3.2290505505957234E-5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L19" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404,3,22905055059572E-05,3,22905055059572E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>5</v>
       </c>
@@ -967,8 +1033,12 @@
         <f t="shared" si="1"/>
         <v>3.2211458980850851E-5</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L20" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404,3,22905055059572E-05,3,22905055059572E-05,3,22114589808509E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>6</v>
       </c>
@@ -998,8 +1068,12 @@
         <f t="shared" si="1"/>
         <v>3.2132412455744468E-5</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L21" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404,3,22905055059572E-05,3,22905055059572E-05,3,22114589808509E-05,3,21324124557445E-05</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>7</v>
       </c>
@@ -1029,8 +1103,12 @@
         <f t="shared" si="1"/>
         <v>3.1855749617872129E-5</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L22" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404,3,22905055059572E-05,3,22905055059572E-05,3,22114589808509E-05,3,21324124557445E-05,3,18557496178721E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1060,8 +1138,12 @@
         <f t="shared" si="1"/>
         <v>3.1460516992340221E-5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L23" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404,3,22905055059572E-05,3,22905055059572E-05,3,22114589808509E-05,3,21324124557445E-05,3,18557496178721E-05,3,14605169923402E-05</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>9</v>
       </c>
@@ -1091,8 +1173,12 @@
         <f t="shared" si="1"/>
         <v>3.086766805404235E-5</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L24" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404,3,22905055059572E-05,3,22905055059572E-05,3,22114589808509E-05,3,21324124557445E-05,3,18557496178721E-05,3,14605169923402E-05,3,08676680540424E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1122,8 +1208,12 @@
         <f t="shared" si="1"/>
         <v>2.9563400389787041E-5</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L25" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404,3,22905055059572E-05,3,22905055059572E-05,3,22114589808509E-05,3,21324124557445E-05,3,18557496178721E-05,3,14605169923402E-05,3,08676680540424E-05,0,000029563400389787</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>11</v>
       </c>
@@ -1146,15 +1236,44 @@
         <v>1E-4</v>
       </c>
       <c r="I26">
-        <f t="shared" si="0"/>
+        <f>((C26/D26)/F26)/10000</f>
         <v>1.2522522522522522E-3</v>
       </c>
       <c r="J26">
-        <f t="shared" si="1"/>
+        <f>SQRT((C26*G26*((1/10000)/D26)/(F26^2))^2 + (C26*E26*((1/10000)/F26)/(D26^2))^2 )</f>
         <v>2.7468667474467904E-5</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="L26" t="str">
+        <f t="shared" si="2"/>
+        <v>2,88915049263828E-05,3,01167260655317E-05,3,10652843668083E-05,3,16581333051062E-05,3,19347961429785E-05,3,21324124557445E-05,3,21719357182977E-05,0,000032250982243404,3,22905055059572E-05,0,000032250982243404,3,23300287685104E-05,3,22905055059572E-05,0,000032250982243404,3,22905055059572E-05,3,22905055059572E-05,3,22114589808509E-05,3,21324124557445E-05,3,18557496178721E-05,3,14605169923402E-05,3,08676680540424E-05,0,000029563400389787,2,74686674744679E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D27">
+        <v>11.1</v>
+      </c>
+      <c r="E27">
+        <v>0.1</v>
+      </c>
+      <c r="F27">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G27">
+        <v>1E-4</v>
+      </c>
+      <c r="I27">
+        <f>((C27/D27)/F27)/10000</f>
+        <v>3.4234234234234234E-5</v>
+      </c>
+      <c r="J27">
+        <f>SQRT((C27*G27*((1/10000)/D27)/(F27^2))^2 + (C27*E27*((1/10000)/F27)/(D27^2))^2 )</f>
+        <v>7.5094198851063332E-7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
         <v>12</v>
       </c>
@@ -1162,7 +1281,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>96</v>
       </c>
@@ -1173,7 +1292,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>97</v>
       </c>
@@ -1184,7 +1303,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>98</v>
       </c>
@@ -1195,7 +1314,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>99</v>
       </c>
@@ -1372,7 +1491,7 @@
         <v>1E-4</v>
       </c>
       <c r="I47">
-        <f t="shared" ref="I47" si="2">((C47/D47)/F47)/10000</f>
+        <f t="shared" ref="I47" si="3">((C47/D47)/F47)/10000</f>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J47">
@@ -1403,11 +1522,11 @@
         <v>1E-4</v>
       </c>
       <c r="I48">
-        <f t="shared" ref="I48:I62" si="3">((C48/D48)/F48)/10000</f>
+        <f t="shared" ref="I48:I62" si="4">((C48/D48)/F48)/10000</f>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J48">
-        <f t="shared" ref="J48:J62" si="4">SQRT((C48*G48*((1/10000)/D48)/(F48^2))^2 + (C48*E48*((1/10000)/F48)/(D48^2))^2 )</f>
+        <f t="shared" ref="J48:J62" si="5">SQRT((C48*G48*((1/10000)/D48)/(F48^2))^2 + (C48*E48*((1/10000)/F48)/(D48^2))^2 )</f>
         <v>2.2449213130212614E-5</v>
       </c>
       <c r="L48" s="1"/>
@@ -1435,11 +1554,11 @@
         <v>1E-4</v>
       </c>
       <c r="I49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J49">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1466,11 +1585,11 @@
         <v>1E-4</v>
       </c>
       <c r="I50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J50">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1497,11 +1616,11 @@
         <v>1E-4</v>
       </c>
       <c r="I51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J51">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1528,11 +1647,11 @@
         <v>1E-4</v>
       </c>
       <c r="I52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J52">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1559,11 +1678,11 @@
         <v>1E-4</v>
       </c>
       <c r="I53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J53">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1590,11 +1709,11 @@
         <v>1E-4</v>
       </c>
       <c r="I54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J54">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1621,11 +1740,11 @@
         <v>1E-4</v>
       </c>
       <c r="I55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J55">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1652,11 +1771,11 @@
         <v>1E-4</v>
       </c>
       <c r="I56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J56">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1683,11 +1802,11 @@
         <v>1E-4</v>
       </c>
       <c r="I57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J57">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1714,11 +1833,11 @@
         <v>1E-4</v>
       </c>
       <c r="I58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J58">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1745,11 +1864,11 @@
         <v>1E-4</v>
       </c>
       <c r="I59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J59">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1776,11 +1895,11 @@
         <v>1E-4</v>
       </c>
       <c r="I60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J60">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1807,11 +1926,11 @@
         <v>1E-4</v>
       </c>
       <c r="I61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J61">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
@@ -1838,11 +1957,11 @@
         <v>1E-4</v>
       </c>
       <c r="I62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0234234234234234E-3</v>
       </c>
       <c r="J62">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2449213130212614E-5</v>
       </c>
     </row>
